--- a/var_info/indv_panel_var_info/GCOE_IN_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/GCOE_IN_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25323D46-E05F-614E-B545-442A74A5C71B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3786BD7D-BEE5-0B41-873D-1D5F40234C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="8" r:id="rId1"/>
@@ -22,16 +22,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dates!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$F$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$69</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="146">
   <si>
     <t>pro</t>
   </si>
@@ -447,9 +447,6 @@
     <t>sample_type</t>
   </si>
   <si>
-    <t>GCOE_CN</t>
-  </si>
-  <si>
     <t>Asia</t>
   </si>
   <si>
@@ -469,6 +466,9 @@
   </si>
   <si>
     <t>occ</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -959,18 +959,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1328,2667 +1320,2858 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BAB111-51F0-2346-A5FD-2C9FD2F9DABE}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="35.1640625" customWidth="1"/>
-    <col min="4" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="1"/>
-    <col min="15" max="15" width="32.5" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="5" width="17" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="16" max="16" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2">
         <v>2009</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3">
         <v>2010</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>11</v>
       </c>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4">
         <v>2012</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5">
         <v>2013</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
         <v>101</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6">
         <v>2012</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7">
         <v>2013</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="M7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
         <v>2012</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
         <v>101</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="M8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9">
         <v>2013</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
         <v>101</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10">
         <v>2012</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
         <v>101</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="M10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11">
         <v>2013</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
         <v>101</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="M11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12">
         <v>2012</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>2</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="M12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13">
         <v>2013</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="M13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14">
         <v>2012</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="M14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15">
         <v>2013</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
         <v>101</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="M15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
         <v>2012</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
         <v>101</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="M16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
         <v>2013</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2</v>
-      </c>
-      <c r="L17" s="1" t="s">
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="M17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18">
         <v>2012</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
         <v>101</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="M18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19">
         <v>2013</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>2</v>
-      </c>
-      <c r="L19" s="1" t="s">
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
         <v>101</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="M19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20">
         <v>2012</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>2</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
         <v>101</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="M20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21">
         <v>2013</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>2</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
         <v>101</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="M21" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22">
         <v>2012</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>2</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="L22" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="M22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23">
         <v>2013</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>2</v>
-      </c>
-      <c r="L23" s="1" t="s">
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
         <v>101</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="M23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24">
         <v>2012</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2</v>
-      </c>
-      <c r="L24" s="1" t="s">
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="L24" t="s">
         <v>101</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="M24" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25">
         <v>2013</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>2</v>
-      </c>
-      <c r="L25" s="1" t="s">
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
         <v>101</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="M25" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26">
         <v>2012</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>2</v>
-      </c>
-      <c r="L26" s="1" t="s">
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
         <v>101</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="1">
+      <c r="M26" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27">
         <v>2013</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2</v>
-      </c>
-      <c r="L27" s="1" t="s">
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
         <v>101</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="1">
+      <c r="M27" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28">
         <v>2012</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>2</v>
-      </c>
-      <c r="L28" s="1" t="s">
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
         <v>101</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="1">
+      <c r="M28" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29">
         <v>2013</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>2</v>
-      </c>
-      <c r="L29" s="1" t="s">
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
         <v>101</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="M29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30">
         <v>2012</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>2</v>
-      </c>
-      <c r="L30" s="1" t="s">
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="L30" t="s">
         <v>101</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="1">
+      <c r="M30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31">
         <v>2013</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>2</v>
-      </c>
-      <c r="L31" s="1" t="s">
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
         <v>101</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="1">
+      <c r="M31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32">
         <v>2012</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>2</v>
-      </c>
-      <c r="L32" s="1" t="s">
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
         <v>101</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="1">
+      <c r="M32" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33">
         <v>2013</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>2</v>
-      </c>
-      <c r="L33" s="1" t="s">
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="L33" t="s">
         <v>101</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="M33" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34">
         <v>2012</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1">
-        <v>2</v>
-      </c>
-      <c r="L34" s="1" t="s">
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
         <v>101</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="1">
+      <c r="M34" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35">
         <v>2013</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1">
-        <v>2</v>
-      </c>
-      <c r="L35" s="1" t="s">
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="L35" t="s">
         <v>101</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="M35" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36">
         <v>2012</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1">
-        <v>2</v>
-      </c>
-      <c r="L36" s="1" t="s">
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="L36" t="s">
         <v>101</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="1">
+      <c r="M36" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37">
         <v>2013</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>2</v>
-      </c>
-      <c r="L37" s="1" t="s">
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="L37" t="s">
         <v>101</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="M37" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38">
         <v>2012</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J38" s="1">
-        <v>2</v>
-      </c>
-      <c r="L38" s="1" t="s">
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="L38" t="s">
         <v>101</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="M38" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39">
         <v>2013</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1">
-        <v>2</v>
-      </c>
-      <c r="L39" s="1" t="s">
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="L39" t="s">
         <v>101</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="1">
+      <c r="M39" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40">
         <v>2012</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1">
-        <v>2</v>
-      </c>
-      <c r="L40" s="1" t="s">
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="L40" t="s">
         <v>101</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="M40" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41">
         <v>2013</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1">
-        <v>2</v>
-      </c>
-      <c r="L41" s="1" t="s">
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="L41" t="s">
         <v>101</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="1">
+      <c r="M41" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42">
         <v>2012</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1">
-        <v>2</v>
-      </c>
-      <c r="L42" s="1" t="s">
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="L42" t="s">
         <v>101</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="1">
+      <c r="M42" t="s">
+        <v>6</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43">
         <v>2013</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1">
-        <v>2</v>
-      </c>
-      <c r="L43" s="1" t="s">
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="L43" t="s">
         <v>101</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="1">
+      <c r="M43" t="s">
+        <v>6</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44">
         <v>2012</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J44" s="1">
-        <v>2</v>
-      </c>
-      <c r="L44" s="1" t="s">
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="L44" t="s">
         <v>101</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="1">
+      <c r="M44" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45">
         <v>2013</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J45" s="1">
-        <v>2</v>
-      </c>
-      <c r="L45" s="1" t="s">
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="L45" t="s">
         <v>101</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="1">
+      <c r="M45" t="s">
+        <v>6</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46">
         <v>2011</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="1" t="s">
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" t="s">
         <v>100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J46" s="1">
-        <v>2</v>
-      </c>
-      <c r="L46" s="1" t="s">
+      <c r="I46" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="L46" t="s">
         <v>127</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="1">
+      <c r="M46" t="s">
+        <v>6</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47">
         <v>2012</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" t="s">
         <v>100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J47" s="1">
-        <v>2</v>
-      </c>
-      <c r="L47" s="1" t="s">
+      <c r="I47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="L47" t="s">
         <v>127</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="1">
+      <c r="M47" t="s">
+        <v>6</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48">
         <v>2013</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" t="s">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1">
-        <v>2</v>
-      </c>
-      <c r="L48" s="1" t="s">
+      <c r="I48" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="L48" t="s">
         <v>127</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="1">
+      <c r="M48" t="s">
+        <v>6</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49">
         <v>2011</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" t="s">
         <v>93</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" t="s">
         <v>100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J49" s="1">
-        <v>2</v>
-      </c>
-      <c r="L49" s="1" t="s">
+      <c r="I49" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="L49" t="s">
         <v>127</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="1">
+      <c r="M49" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50">
         <v>2012</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" t="s">
         <v>93</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" t="s">
         <v>100</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J50" s="1">
-        <v>2</v>
-      </c>
-      <c r="L50" s="1" t="s">
+      <c r="I50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="L50" t="s">
         <v>127</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="1">
+      <c r="M50" t="s">
+        <v>6</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51">
         <v>2013</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" t="s">
         <v>100</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J51" s="1">
-        <v>2</v>
-      </c>
-      <c r="L51" s="1" t="s">
+      <c r="I51" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="L51" t="s">
         <v>127</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="1">
+      <c r="M51" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52">
         <v>2011</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" t="s">
         <v>94</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" t="s">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J52" s="1">
-        <v>2</v>
-      </c>
-      <c r="L52" s="1" t="s">
+      <c r="I52" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="L52" t="s">
         <v>127</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="1">
+      <c r="M52" t="s">
+        <v>6</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53">
         <v>2012</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>116</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="1" t="s">
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" t="s">
         <v>100</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J53" s="1">
-        <v>2</v>
-      </c>
-      <c r="L53" s="1" t="s">
+      <c r="I53" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="L53" t="s">
         <v>127</v>
       </c>
-      <c r="M53" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="1">
+      <c r="M53" t="s">
+        <v>6</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54">
         <v>2013</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>117</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" t="s">
         <v>94</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="1" t="s">
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" t="s">
         <v>100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J54" s="1">
-        <v>2</v>
-      </c>
-      <c r="L54" s="1" t="s">
+      <c r="I54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="L54" t="s">
         <v>127</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="1">
+      <c r="M54" t="s">
+        <v>6</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55">
         <v>2011</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55" s="1" t="s">
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" t="s">
         <v>100</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J55" s="1">
-        <v>2</v>
-      </c>
-      <c r="L55" s="1" t="s">
+      <c r="I55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="L55" t="s">
         <v>127</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="1">
+      <c r="M55" t="s">
+        <v>6</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56">
         <v>2012</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H56" s="1" t="s">
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" t="s">
         <v>100</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J56" s="1">
-        <v>2</v>
-      </c>
-      <c r="L56" s="1" t="s">
+      <c r="I56" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="L56" t="s">
         <v>127</v>
       </c>
-      <c r="M56" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" s="1">
+      <c r="M56" t="s">
+        <v>6</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57">
         <v>2013</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="1" t="s">
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" t="s">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J57" s="1">
-        <v>2</v>
-      </c>
-      <c r="L57" s="1" t="s">
+      <c r="I57" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="L57" t="s">
         <v>127</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" s="1">
+      <c r="M57" t="s">
+        <v>6</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58">
         <v>2011</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" t="s">
         <v>95</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="1" t="s">
+      <c r="F58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" t="s">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J58" s="1">
-        <v>2</v>
-      </c>
-      <c r="L58" s="1" t="s">
+      <c r="I58" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="L58" t="s">
         <v>127</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B59" s="1">
+      <c r="M58" t="s">
+        <v>6</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59">
         <v>2012</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>116</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="1" t="s">
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" t="s">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J59" s="1">
-        <v>2</v>
-      </c>
-      <c r="L59" s="1" t="s">
+      <c r="I59" t="s">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="L59" t="s">
         <v>127</v>
       </c>
-      <c r="M59" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="1">
+      <c r="M59" t="s">
+        <v>6</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60">
         <v>2013</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" t="s">
         <v>95</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="1" t="s">
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" t="s">
         <v>100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J60" s="1">
-        <v>2</v>
-      </c>
-      <c r="L60" s="1" t="s">
+      <c r="I60" t="s">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="L60" t="s">
         <v>127</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="1">
+      <c r="M60" t="s">
+        <v>6</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61">
         <v>2011</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" t="s">
         <v>115</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" t="s">
         <v>96</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H61" s="1" t="s">
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>4</v>
+      </c>
+      <c r="H61" t="s">
         <v>100</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J61" s="1">
-        <v>2</v>
-      </c>
-      <c r="L61" s="1" t="s">
+      <c r="I61" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="L61" t="s">
         <v>127</v>
       </c>
-      <c r="M61" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B62" s="1">
+      <c r="M61" t="s">
+        <v>6</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62">
         <v>2012</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>116</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" t="s">
         <v>96</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="1" t="s">
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" t="s">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J62" s="1">
-        <v>2</v>
-      </c>
-      <c r="L62" s="1" t="s">
+      <c r="I62" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="L62" t="s">
         <v>127</v>
       </c>
-      <c r="M62" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B63" s="1">
+      <c r="M62" t="s">
+        <v>6</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63">
         <v>2013</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" t="s">
         <v>117</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" t="s">
         <v>96</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H63" s="1" t="s">
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63" t="s">
         <v>100</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J63" s="1">
-        <v>2</v>
-      </c>
-      <c r="L63" s="1" t="s">
+      <c r="I63" t="s">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="L63" t="s">
         <v>127</v>
       </c>
-      <c r="M63" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="1">
+      <c r="M63" t="s">
+        <v>6</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64">
         <v>2011</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s">
         <v>115</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" t="s">
         <v>97</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H64" s="1" t="s">
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>4</v>
+      </c>
+      <c r="H64" t="s">
         <v>100</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J64" s="1">
-        <v>2</v>
-      </c>
-      <c r="L64" s="1" t="s">
+      <c r="I64" t="s">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="L64" t="s">
         <v>127</v>
       </c>
-      <c r="M64" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B65" s="1">
+      <c r="M64" t="s">
+        <v>6</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65">
         <v>2012</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" t="s">
         <v>97</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="1" t="s">
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>4</v>
+      </c>
+      <c r="H65" t="s">
         <v>100</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J65" s="1">
-        <v>2</v>
-      </c>
-      <c r="L65" s="1" t="s">
+      <c r="I65" t="s">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="L65" t="s">
         <v>127</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B66" s="1">
+      <c r="M65" t="s">
+        <v>6</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66">
         <v>2013</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>117</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" t="s">
         <v>97</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="1" t="s">
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" t="s">
         <v>100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J66" s="1">
-        <v>2</v>
-      </c>
-      <c r="L66" s="1" t="s">
+      <c r="I66" t="s">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="L66" t="s">
         <v>127</v>
       </c>
-      <c r="M66" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="1">
+      <c r="M66" t="s">
+        <v>6</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67">
         <v>2011</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" t="s">
         <v>115</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" t="s">
         <v>98</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H67" s="1" t="s">
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" t="s">
         <v>100</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J67" s="1">
-        <v>2</v>
-      </c>
-      <c r="L67" s="1" t="s">
+      <c r="I67" t="s">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="L67" t="s">
         <v>127</v>
       </c>
-      <c r="M67" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" s="1">
+      <c r="M67" t="s">
+        <v>6</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68">
         <v>2012</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s">
         <v>116</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" t="s">
         <v>98</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H68" s="1" t="s">
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H68" t="s">
         <v>100</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J68" s="1">
-        <v>2</v>
-      </c>
-      <c r="L68" s="1" t="s">
+      <c r="I68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="L68" t="s">
         <v>127</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B69" s="1">
+      <c r="M68" t="s">
+        <v>6</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69">
         <v>2013</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" t="s">
         <v>117</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" t="s">
         <v>98</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H69" s="1" t="s">
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" t="s">
         <v>100</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J69" s="1">
-        <v>2</v>
-      </c>
-      <c r="L69" s="1" t="s">
+      <c r="I69" t="s">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="L69" t="s">
         <v>127</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>6</v>
+      <c r="M69" t="s">
+        <v>6</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O69" xr:uid="{242327D1-4C78-2B48-B264-B11DBB57F0CC}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="fin_oth"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A4:O45">
-      <sortCondition ref="E1:E69"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3997,61 +4180,64 @@
     <col min="6" max="6" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>99</v>
       </c>
       <c r="B2">
         <v>2009</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>113</v>
       </c>
       <c r="D2" t="s">
@@ -4060,18 +4246,18 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>99</v>
       </c>
       <c r="B3">
         <v>2010</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>114</v>
       </c>
       <c r="D3" t="s">
@@ -4080,18 +4266,18 @@
       <c r="E3" t="s">
         <v>51</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>99</v>
       </c>
       <c r="B4">
         <v>2011</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>115</v>
       </c>
       <c r="D4" t="s">
@@ -4100,18 +4286,18 @@
       <c r="E4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>99</v>
       </c>
       <c r="B5">
         <v>2012</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>116</v>
       </c>
       <c r="D5" t="s">
@@ -4120,18 +4306,18 @@
       <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>99</v>
       </c>
       <c r="B6">
         <v>2013</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>117</v>
       </c>
       <c r="D6" t="s">
@@ -4140,7 +4326,7 @@
       <c r="E6" t="s">
         <v>51</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4151,329 +4337,326 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="6"/>
-    <col min="3" max="3" width="24.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="6"/>
-    <col min="9" max="9" width="10" style="6" customWidth="1"/>
-    <col min="10" max="14" width="10.83203125" style="6"/>
-    <col min="15" max="15" width="20" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="24.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="10" style="2" customWidth="1"/>
+    <col min="10" max="15" width="10.83203125" style="2"/>
+    <col min="16" max="16" width="20" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="6">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="2">
         <v>2009</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2">
         <v>2010</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2">
         <v>2011</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="6">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="2">
         <v>2012</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="6">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="2">
         <v>2013</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="P6" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="6">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="2">
         <v>2009</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="6">
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="2">
         <v>2012</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="6">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="2">
         <v>2013</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="6">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="2">
         <v>2010</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="P10" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="6">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="2">
         <v>2011</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="P11" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16"/>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17"/>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="A18"/>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19"/>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="A20"/>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="A21"/>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-    </row>
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="A25"/>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="A26"/>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27"/>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28"/>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="A29"/>
     </row>
     <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="A30"/>
     </row>
     <row r="31" spans="1:1" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:1" ht="29" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4484,69 +4667,70 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="114" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="51.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>99</v>
       </c>
       <c r="B2">
@@ -4555,18 +4739,18 @@
       <c r="C2" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>99</v>
       </c>
       <c r="B3">
@@ -4575,18 +4759,18 @@
       <c r="C3" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>99</v>
       </c>
       <c r="B4">
@@ -4595,38 +4779,38 @@
       <c r="C4" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5">
         <v>2011</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>112</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>99</v>
       </c>
       <c r="B6">
@@ -4635,18 +4819,18 @@
       <c r="C6" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>99</v>
       </c>
       <c r="B7">
@@ -4655,18 +4839,18 @@
       <c r="C7" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O8" s="2" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4677,10 +4861,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A85E1B4-6E48-9643-B927-0FB77A3D9FCF}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4688,55 +4872,58 @@
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>99</v>
       </c>
       <c r="B2">
@@ -4755,7 +4942,7 @@
         <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L2" t="s">
         <v>127</v>
@@ -4763,12 +4950,15 @@
       <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>99</v>
       </c>
       <c r="B3">
@@ -4787,7 +4977,7 @@
         <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L3" t="s">
         <v>127</v>
@@ -4795,12 +4985,15 @@
       <c r="M3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>99</v>
       </c>
       <c r="B4">
@@ -4819,7 +5012,7 @@
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L4" t="s">
         <v>127</v>
@@ -4827,12 +5020,15 @@
       <c r="M4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>99</v>
       </c>
       <c r="B5">
@@ -4847,11 +5043,11 @@
       <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>145</v>
+      <c r="H5" t="s">
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L5" t="s">
         <v>101</v>
@@ -4859,12 +5055,15 @@
       <c r="M5" t="s">
         <v>6</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>99</v>
       </c>
       <c r="B6">
@@ -4879,11 +5078,11 @@
       <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>145</v>
+      <c r="H6" t="s">
+        <v>144</v>
       </c>
       <c r="I6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L6" t="s">
         <v>101</v>
@@ -4891,12 +5090,15 @@
       <c r="M6" t="s">
         <v>6</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>99</v>
       </c>
       <c r="B7">
@@ -4911,11 +5113,11 @@
       <c r="G7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>145</v>
+      <c r="H7" t="s">
+        <v>144</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L7" t="s">
         <v>101</v>
@@ -4923,12 +5125,15 @@
       <c r="M7" t="s">
         <v>6</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>99</v>
       </c>
       <c r="B8">
@@ -4943,11 +5148,11 @@
       <c r="G8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>145</v>
+      <c r="H8" t="s">
+        <v>144</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L8" t="s">
         <v>101</v>
@@ -4955,12 +5160,15 @@
       <c r="M8" t="s">
         <v>6</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>99</v>
       </c>
       <c r="B9">
@@ -4975,11 +5183,11 @@
       <c r="G9" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>145</v>
+      <c r="H9" t="s">
+        <v>144</v>
       </c>
       <c r="I9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L9" t="s">
         <v>101</v>
@@ -4987,12 +5195,15 @@
       <c r="M9" t="s">
         <v>6</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>99</v>
       </c>
       <c r="B10">
@@ -5007,11 +5218,11 @@
       <c r="G10" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>145</v>
+      <c r="H10" t="s">
+        <v>144</v>
       </c>
       <c r="I10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s">
         <v>101</v>
@@ -5019,7 +5230,10 @@
       <c r="M10" t="s">
         <v>6</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5033,7 +5247,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5060,22 +5274,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
         <v>139</v>
       </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
-      </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
